--- a/wartosci_walorow.xlsx
+++ b/wartosci_walorow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matsz\programowanie\Optymalizacja portfela\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E91B0BE-DFC2-433E-99CB-1C2FE695FA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A7FC3B-F61B-468E-A8DA-0FC98BCF6BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MSCI EM" sheetId="7" r:id="rId1"/>
@@ -42,10 +42,10 @@
     <definedName name="DaneZewnętrzne_2" localSheetId="12" hidden="1">mwig40_m!$B$1:$B$258</definedName>
     <definedName name="DaneZewnętrzne_2" localSheetId="4" hidden="1">'SP500'!$A$1:$B$364</definedName>
     <definedName name="DaneZewnętrzne_2" localSheetId="15" hidden="1">wig20tr_m!$B$1:$B$212</definedName>
-    <definedName name="DaneZewnętrzne_3" localSheetId="8" hidden="1">'^tbsp_m(1)'!$A$1:$B$188</definedName>
+    <definedName name="DaneZewnętrzne_3" localSheetId="8" hidden="1">'^tbsp_m(1)'!$B$1:$B$188</definedName>
     <definedName name="DaneZewnętrzne_3" localSheetId="3" hidden="1">'MSCI EUROPE'!$A$1:$B$522</definedName>
     <definedName name="DaneZewnętrzne_3" localSheetId="14" hidden="1">swig80_m!$B$1:$B$250</definedName>
-    <definedName name="DaneZewnętrzne_4" localSheetId="7" hidden="1">eurpln_m!$A$1:$B$251</definedName>
+    <definedName name="DaneZewnętrzne_4" localSheetId="7" hidden="1">eurpln_m!$B$1:$B$251</definedName>
     <definedName name="DaneZewnętrzne_4" localSheetId="2" hidden="1">'MSCI PAcyfic ex Japan'!$A$1:$B$522</definedName>
     <definedName name="DaneZewnętrzne_4" localSheetId="13" hidden="1">swig80tr_m!$B$1:$B$152</definedName>
     <definedName name="DaneZewnętrzne_5" localSheetId="1" hidden="1">'MSCI Japan'!$A$1:$B$522</definedName>
@@ -846,6 +846,12 @@
   </cellStyles>
   <dxfs count="34">
     <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -911,13 +917,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1177,15 +1177,16 @@
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DaneZewnętrzne_4" connectionId="12" xr16:uid="{00000000-0016-0000-0700-000007000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7">
+  <queryTableRefresh nextId="8" unboundColumnsLeft="1">
     <queryTableFields count="2">
-      <queryTableField id="1" name="Data" tableColumnId="1"/>
+      <queryTableField id="7" dataBound="0" tableColumnId="2"/>
       <queryTableField id="5" name="Zamkniecie" tableColumnId="5"/>
     </queryTableFields>
-    <queryTableDeletedFields count="3">
+    <queryTableDeletedFields count="4">
       <deletedField name="Otwarcie"/>
       <deletedField name="Najwyzszy"/>
       <deletedField name="Najnizszy"/>
+      <deletedField name="Data"/>
     </queryTableDeletedFields>
   </queryTableRefresh>
 </queryTable>
@@ -1193,16 +1194,17 @@
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DaneZewnętrzne_3" connectionId="1" xr16:uid="{00000000-0016-0000-0800-000008000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7">
+  <queryTableRefresh nextId="8" unboundColumnsLeft="1">
     <queryTableFields count="2">
-      <queryTableField id="1" name="Data" tableColumnId="1"/>
+      <queryTableField id="7" dataBound="0" tableColumnId="2"/>
       <queryTableField id="5" name="Zamkniecie" tableColumnId="5"/>
     </queryTableFields>
-    <queryTableDeletedFields count="4">
+    <queryTableDeletedFields count="5">
       <deletedField name="Otwarcie"/>
       <deletedField name="Najwyzszy"/>
       <deletedField name="Najnizszy"/>
       <deletedField name="Wolumen"/>
+      <deletedField name="Data"/>
     </queryTableDeletedFields>
   </queryTableRefresh>
 </queryTable>
@@ -1223,8 +1225,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="chart_13" displayName="chart_13" ref="A1:B117" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B117" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" uniqueName="2" name="GAC" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" uniqueName="2" name="GAC" queryTableFieldId="2" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1234,8 +1236,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="chart_11" displayName="chart_11" ref="A1:B99" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B99" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" uniqueName="2" name="GABHDG" queryTableFieldId="2" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" uniqueName="2" name="GABHDG" queryTableFieldId="2" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1245,8 +1247,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="mwig40_m" displayName="mwig40_m" ref="A1:B258" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B258" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="2">
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0B00-00000B000000}" uniqueName="11" name="Date" queryTableFieldId="11" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" uniqueName="5" name="Mwig40" queryTableFieldId="5" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0B00-00000B000000}" uniqueName="11" name="Date" queryTableFieldId="11" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" uniqueName="5" name="Mwig40" queryTableFieldId="5" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1256,8 +1258,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="swig80tr_m" displayName="swig80tr_m" ref="A1:B152" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B152" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="2">
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" uniqueName="7" name="Date" queryTableFieldId="7" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" uniqueName="5" name="Swig80tr" queryTableFieldId="5" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" uniqueName="7" name="Date" queryTableFieldId="7" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" uniqueName="5" name="Swig80tr" queryTableFieldId="5" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1267,8 +1269,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="swig80_m" displayName="swig80_m" ref="A1:B250" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B250" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="2">
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" uniqueName="7" name="Date" queryTableFieldId="7" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" uniqueName="5" name="Swig80" queryTableFieldId="5" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" uniqueName="7" name="Date" queryTableFieldId="7" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" uniqueName="5" name="Swig80" queryTableFieldId="5" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1278,8 +1280,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="wig20tr_m" displayName="wig20tr_m" ref="A1:B212" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B212" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="2">
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" uniqueName="7" name="Date" queryTableFieldId="7" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" uniqueName="5" name="Wig20tr" queryTableFieldId="5" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" uniqueName="7" name="Date" queryTableFieldId="7" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" uniqueName="5" name="Wig20tr" queryTableFieldId="5" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1289,8 +1291,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="chart_14" displayName="chart_14" ref="A1:B522" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B522" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" uniqueName="2" name="Gold" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" uniqueName="2" name="Gold" queryTableFieldId="2" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1300,8 +1302,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="wig20_m_1" displayName="wig20_m_1" ref="A1:B250" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B250" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="2">
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" uniqueName="7" name="Date" queryTableFieldId="7" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" uniqueName="5" name="Wig20" queryTableFieldId="5" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" uniqueName="7" name="Date" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" uniqueName="5" name="Wig20" queryTableFieldId="5" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1377,8 +1379,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="eurpln_m" displayName="eurpln_m" ref="A1:B251" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B251" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" uniqueName="5" name="EURPLN" queryTableFieldId="5" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{D6BEB7F7-90CE-4971-9756-C5A703ADBCB8}" uniqueName="2" name="Date" queryTableFieldId="7" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" uniqueName="5" name="EURPLN" queryTableFieldId="5" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1388,8 +1390,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="tbsp_m_1" displayName="tbsp_m_1" ref="A1:B188" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:B188" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" uniqueName="1" name="Date" queryTableFieldId="1" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" uniqueName="5" name="TBSP" queryTableFieldId="5" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{630F1E9A-4FB9-4BCC-9D0F-C2370A08090C}" uniqueName="2" name="Date" queryTableFieldId="7" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" uniqueName="5" name="TBSP" queryTableFieldId="5" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11840,7 +11842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+    <sheetView topLeftCell="A224" workbookViewId="0">
       <selection activeCell="A246" sqref="A246:A247"/>
     </sheetView>
   </sheetViews>
@@ -41459,2277 +41461,2278 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C251"/>
+  <dimension ref="A1:D251"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="C1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>37164</v>
+        <v>37165</v>
       </c>
       <c r="B2" s="2">
         <v>3.8469000000000002</v>
       </c>
-      <c r="C2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>37195</v>
+        <v>37196</v>
       </c>
       <c r="B3" s="2">
         <v>3.6804999999999999</v>
       </c>
-      <c r="C3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>37225</v>
+        <v>37226</v>
       </c>
       <c r="B4" s="2">
         <v>3.6421999999999999</v>
       </c>
-      <c r="C4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>37256</v>
+        <v>37257</v>
       </c>
       <c r="B5" s="2">
         <v>3.5272000000000001</v>
       </c>
-      <c r="C5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>37287</v>
+        <v>37288</v>
       </c>
       <c r="B6" s="2">
         <v>3.5813999999999999</v>
       </c>
-      <c r="C6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>37315</v>
+        <v>37316</v>
       </c>
       <c r="B7" s="2">
         <v>3.6707999999999998</v>
       </c>
-      <c r="C7"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>37346</v>
+        <v>37347</v>
       </c>
       <c r="B8" s="2">
         <v>3.5878999999999999</v>
       </c>
-      <c r="C8"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>37376</v>
+        <v>37377</v>
       </c>
       <c r="B9" s="2">
         <v>3.5914000000000001</v>
       </c>
-      <c r="C9"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>37407</v>
+        <v>37408</v>
       </c>
       <c r="B10" s="2">
         <v>3.7465000000000002</v>
       </c>
-      <c r="C10"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>37437</v>
+        <v>37438</v>
       </c>
       <c r="B11" s="2">
         <v>4.0179999999999998</v>
       </c>
-      <c r="C11"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>37468</v>
+        <v>37469</v>
       </c>
       <c r="B12" s="2">
         <v>4.0791000000000004</v>
       </c>
-      <c r="C12"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>37499</v>
+        <v>37500</v>
       </c>
       <c r="B13" s="2">
         <v>4.0537999999999998</v>
       </c>
-      <c r="C13"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>37529</v>
+        <v>37530</v>
       </c>
       <c r="B14" s="2">
         <v>4.0944000000000003</v>
       </c>
-      <c r="C14"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>37560</v>
+        <v>37561</v>
       </c>
       <c r="B15" s="2">
         <v>3.9906999999999999</v>
       </c>
-      <c r="C15"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>37590</v>
+        <v>37591</v>
       </c>
       <c r="B16" s="2">
         <v>3.9906000000000001</v>
       </c>
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>37621</v>
+        <v>37622</v>
       </c>
       <c r="B17" s="2">
         <v>4.0152000000000001</v>
       </c>
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>37652</v>
+        <v>37653</v>
       </c>
       <c r="B18" s="2">
         <v>4.1094999999999997</v>
       </c>
-      <c r="C18"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>37680</v>
+        <v>37681</v>
       </c>
       <c r="B19" s="2">
         <v>4.2183999999999999</v>
       </c>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>37711</v>
+        <v>37712</v>
       </c>
       <c r="B20" s="2">
         <v>4.4732000000000003</v>
       </c>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>37741</v>
+        <v>37742</v>
       </c>
       <c r="B21" s="2">
         <v>4.2558999999999996</v>
       </c>
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>37772</v>
+        <v>37773</v>
       </c>
       <c r="B22" s="2">
         <v>4.3745000000000003</v>
       </c>
-      <c r="C22"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>37802</v>
+        <v>37803</v>
       </c>
       <c r="B23" s="2">
         <v>4.4809000000000001</v>
       </c>
-      <c r="C23"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>37833</v>
+        <v>37834</v>
       </c>
       <c r="B24" s="2">
         <v>4.3442999999999996</v>
       </c>
-      <c r="C24"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>37864</v>
+        <v>37865</v>
       </c>
       <c r="B25" s="2">
         <v>4.3601999999999999</v>
       </c>
-      <c r="C25"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>37894</v>
+        <v>37895</v>
       </c>
       <c r="B26" s="2">
         <v>4.6039000000000003</v>
       </c>
-      <c r="C26"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>37925</v>
+        <v>37926</v>
       </c>
       <c r="B27" s="2">
         <v>4.6771000000000003</v>
       </c>
-      <c r="C27"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>37955</v>
+        <v>37956</v>
       </c>
       <c r="B28" s="2">
         <v>4.6757999999999997</v>
       </c>
-      <c r="C28"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>37986</v>
+        <v>37987</v>
       </c>
       <c r="B29" s="2">
         <v>4.7367999999999997</v>
       </c>
-      <c r="C29"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>38017</v>
+        <v>38018</v>
       </c>
       <c r="B30" s="2">
         <v>4.7988999999999997</v>
       </c>
-      <c r="C30"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>38046</v>
+        <v>38047</v>
       </c>
       <c r="B31" s="2">
         <v>4.8887999999999998</v>
       </c>
-      <c r="C31"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>38077</v>
+        <v>38078</v>
       </c>
       <c r="B32" s="2">
         <v>4.7533000000000003</v>
       </c>
-      <c r="C32"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>38107</v>
+        <v>38108</v>
       </c>
       <c r="B33" s="2">
         <v>4.8103999999999996</v>
       </c>
-      <c r="C33"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>38138</v>
+        <v>38139</v>
       </c>
       <c r="B34" s="2">
         <v>4.6478000000000002</v>
       </c>
-      <c r="C34"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>38168</v>
+        <v>38169</v>
       </c>
       <c r="B35" s="2">
         <v>4.4973000000000001</v>
       </c>
-      <c r="C35"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>38199</v>
+        <v>38200</v>
       </c>
       <c r="B36" s="2">
         <v>4.375</v>
       </c>
-      <c r="C36"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>38230</v>
+        <v>38231</v>
       </c>
       <c r="B37" s="2">
         <v>4.4462999999999999</v>
       </c>
-      <c r="C37"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>38260</v>
+        <v>38261</v>
       </c>
       <c r="B38" s="2">
         <v>4.3579999999999997</v>
       </c>
-      <c r="C38"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>38291</v>
+        <v>38292</v>
       </c>
       <c r="B39" s="2">
         <v>4.3137999999999996</v>
       </c>
-      <c r="C39"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>38321</v>
+        <v>38322</v>
       </c>
       <c r="B40" s="2">
         <v>4.1837999999999997</v>
       </c>
-      <c r="C40"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>38352</v>
+        <v>38353</v>
       </c>
       <c r="B41" s="2">
         <v>4.0735999999999999</v>
       </c>
-      <c r="C41"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>38383</v>
+        <v>38384</v>
       </c>
       <c r="B42" s="2">
         <v>4.0566000000000004</v>
       </c>
-      <c r="C42"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>38411</v>
+        <v>38412</v>
       </c>
       <c r="B43" s="2">
         <v>3.8971</v>
       </c>
-      <c r="C43"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>38442</v>
+        <v>38443</v>
       </c>
       <c r="B44" s="2">
         <v>4.0778999999999996</v>
       </c>
-      <c r="C44"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>38472</v>
+        <v>38473</v>
       </c>
       <c r="B45" s="2">
         <v>4.2759</v>
       </c>
-      <c r="C45"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>38503</v>
+        <v>38504</v>
       </c>
       <c r="B46" s="2">
         <v>4.1512000000000002</v>
       </c>
-      <c r="C46"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>38533</v>
+        <v>38534</v>
       </c>
       <c r="B47" s="2">
         <v>4.0434000000000001</v>
       </c>
-      <c r="C47"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>38564</v>
+        <v>38565</v>
       </c>
       <c r="B48" s="2">
         <v>4.0624000000000002</v>
       </c>
-      <c r="C48"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>38595</v>
+        <v>38596</v>
       </c>
       <c r="B49" s="2">
         <v>4.0214999999999996</v>
       </c>
-      <c r="C49"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>38625</v>
+        <v>38626</v>
       </c>
       <c r="B50" s="2">
         <v>3.9131</v>
       </c>
-      <c r="C50"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>38656</v>
+        <v>38657</v>
       </c>
       <c r="B51" s="2">
         <v>3.9647999999999999</v>
       </c>
-      <c r="C51"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>38686</v>
+        <v>38687</v>
       </c>
       <c r="B52" s="2">
         <v>3.9043999999999999</v>
       </c>
-      <c r="C52"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>38717</v>
+        <v>38718</v>
       </c>
       <c r="B53" s="2">
         <v>3.839</v>
       </c>
-      <c r="C53"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>38748</v>
+        <v>38749</v>
       </c>
       <c r="B54" s="2">
         <v>3.819</v>
       </c>
-      <c r="C54"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>38776</v>
+        <v>38777</v>
       </c>
       <c r="B55" s="2">
         <v>3.78</v>
       </c>
-      <c r="C55"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>38807</v>
+        <v>38808</v>
       </c>
       <c r="B56" s="2">
         <v>3.9186000000000001</v>
       </c>
-      <c r="C56"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>38837</v>
+        <v>38838</v>
       </c>
       <c r="B57" s="2">
         <v>3.8742000000000001</v>
       </c>
-      <c r="C57"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>38868</v>
+        <v>38869</v>
       </c>
       <c r="B58" s="2">
         <v>3.9356</v>
       </c>
-      <c r="C58"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>38898</v>
+        <v>38899</v>
       </c>
       <c r="B59" s="2">
         <v>4.0763999999999996</v>
       </c>
-      <c r="C59"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>38929</v>
+        <v>38930</v>
       </c>
       <c r="B60" s="2">
         <v>3.9428999999999998</v>
       </c>
-      <c r="C60"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>38960</v>
+        <v>38961</v>
       </c>
       <c r="B61" s="2">
         <v>3.9419</v>
       </c>
-      <c r="C61"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>38990</v>
+        <v>38991</v>
       </c>
       <c r="B62" s="2">
         <v>3.9710999999999999</v>
       </c>
-      <c r="C62"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>39021</v>
+        <v>39022</v>
       </c>
       <c r="B63" s="2">
         <v>3.8693</v>
       </c>
-      <c r="C63"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>39051</v>
+        <v>39052</v>
       </c>
       <c r="B64" s="2">
         <v>3.8159999999999998</v>
       </c>
-      <c r="C64"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>39082</v>
+        <v>39083</v>
       </c>
       <c r="B65" s="2">
         <v>3.8296999999999999</v>
       </c>
-      <c r="C65"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>39113</v>
+        <v>39114</v>
       </c>
       <c r="B66" s="2">
         <v>3.9119999999999999</v>
       </c>
-      <c r="C66"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>39141</v>
+        <v>39142</v>
       </c>
       <c r="B67" s="2">
         <v>3.9230999999999998</v>
       </c>
-      <c r="C67"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>39172</v>
+        <v>39173</v>
       </c>
       <c r="B68" s="2">
         <v>3.8601000000000001</v>
       </c>
-      <c r="C68"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>39202</v>
+        <v>39203</v>
       </c>
       <c r="B69" s="2">
         <v>3.7888000000000002</v>
       </c>
-      <c r="C69"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>39233</v>
+        <v>39234</v>
       </c>
       <c r="B70" s="2">
         <v>3.8159999999999998</v>
       </c>
-      <c r="C70"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>39263</v>
+        <v>39264</v>
       </c>
       <c r="B71" s="2">
         <v>3.7627999999999999</v>
       </c>
-      <c r="C71"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>39294</v>
+        <v>39295</v>
       </c>
       <c r="B72" s="2">
         <v>3.7884000000000002</v>
       </c>
-      <c r="C72"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>39325</v>
+        <v>39326</v>
       </c>
       <c r="B73" s="2">
         <v>3.8258999999999999</v>
       </c>
-      <c r="C73"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>39355</v>
+        <v>39356</v>
       </c>
       <c r="B74" s="2">
         <v>3.7705000000000002</v>
       </c>
-      <c r="C74"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>39386</v>
+        <v>39387</v>
       </c>
       <c r="B75" s="2">
         <v>3.6278999999999999</v>
       </c>
-      <c r="C75"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>39416</v>
+        <v>39417</v>
       </c>
       <c r="B76" s="2">
         <v>3.6118999999999999</v>
       </c>
-      <c r="C76"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>39447</v>
+        <v>39448</v>
       </c>
       <c r="B77" s="2">
         <v>3.5994000000000002</v>
       </c>
-      <c r="C77"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>39478</v>
+        <v>39479</v>
       </c>
       <c r="B78" s="2">
         <v>3.605</v>
       </c>
-      <c r="C78"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>39507</v>
+        <v>39508</v>
       </c>
       <c r="B79" s="2">
         <v>3.5125000000000002</v>
       </c>
-      <c r="C79"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>39538</v>
+        <v>39539</v>
       </c>
       <c r="B80" s="2">
         <v>3.5164</v>
       </c>
-      <c r="C80"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>39568</v>
+        <v>39569</v>
       </c>
       <c r="B81" s="2">
         <v>3.4525999999999999</v>
       </c>
-      <c r="C81"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>39599</v>
+        <v>39600</v>
       </c>
       <c r="B82" s="2">
         <v>3.37</v>
       </c>
-      <c r="C82"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>39629</v>
+        <v>39630</v>
       </c>
       <c r="B83" s="2">
         <v>3.3506</v>
       </c>
-      <c r="C83"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>39660</v>
+        <v>39661</v>
       </c>
       <c r="B84" s="2">
         <v>3.2111999999999998</v>
       </c>
-      <c r="C84"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>39691</v>
+        <v>39692</v>
       </c>
       <c r="B85" s="2">
         <v>3.3307000000000002</v>
       </c>
-      <c r="C85"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>39721</v>
+        <v>39722</v>
       </c>
       <c r="B86" s="2">
         <v>3.3957999999999999</v>
       </c>
-      <c r="C86"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>39752</v>
+        <v>39753</v>
       </c>
       <c r="B87" s="2">
         <v>3.5063</v>
       </c>
-      <c r="C87"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>39782</v>
+        <v>39783</v>
       </c>
       <c r="B88" s="2">
         <v>3.7776000000000001</v>
       </c>
-      <c r="C88"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>39813</v>
+        <v>39814</v>
       </c>
       <c r="B89" s="2">
         <v>4.0991999999999997</v>
       </c>
-      <c r="C89"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>39844</v>
+        <v>39845</v>
       </c>
       <c r="B90" s="2">
         <v>4.4478</v>
       </c>
-      <c r="C90"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>39872</v>
+        <v>39873</v>
       </c>
       <c r="B91" s="2">
         <v>4.6550000000000002</v>
       </c>
-      <c r="C91"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>39903</v>
+        <v>39904</v>
       </c>
       <c r="B92" s="2">
         <v>4.6498999999999997</v>
       </c>
-      <c r="C92"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>39933</v>
+        <v>39934</v>
       </c>
       <c r="B93" s="2">
         <v>4.4200999999999997</v>
       </c>
-      <c r="C93"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>39964</v>
+        <v>39965</v>
       </c>
       <c r="B94" s="2">
         <v>4.5083000000000002</v>
       </c>
-      <c r="C94"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>39994</v>
+        <v>39995</v>
       </c>
       <c r="B95" s="2">
         <v>4.4543999999999997</v>
       </c>
-      <c r="C95"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>40025</v>
+        <v>40026</v>
       </c>
       <c r="B96" s="2">
         <v>4.1417000000000002</v>
       </c>
-      <c r="C96"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>40056</v>
+        <v>40057</v>
       </c>
       <c r="B97" s="2">
         <v>4.0903</v>
       </c>
-      <c r="C97"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>40086</v>
+        <v>40087</v>
       </c>
       <c r="B98" s="2">
         <v>4.2026000000000003</v>
       </c>
-      <c r="C98"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>40117</v>
+        <v>40118</v>
       </c>
       <c r="B99" s="2">
         <v>4.2534000000000001</v>
       </c>
-      <c r="C99"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>40147</v>
+        <v>40148</v>
       </c>
       <c r="B100" s="2">
         <v>4.1619999999999999</v>
       </c>
-      <c r="C100"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>40178</v>
+        <v>40179</v>
       </c>
       <c r="B101" s="2">
         <v>4.1001000000000003</v>
       </c>
-      <c r="C101"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D101"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>40209</v>
+        <v>40210</v>
       </c>
       <c r="B102" s="2">
         <v>4.0357000000000003</v>
       </c>
-      <c r="C102"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>40237</v>
+        <v>40238</v>
       </c>
       <c r="B103" s="2">
         <v>3.9466999999999999</v>
       </c>
-      <c r="C103"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>40268</v>
+        <v>40269</v>
       </c>
       <c r="B104" s="2">
         <v>3.8555000000000001</v>
       </c>
-      <c r="C104"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D104"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>40298</v>
+        <v>40299</v>
       </c>
       <c r="B105" s="2">
         <v>3.9218000000000002</v>
       </c>
-      <c r="C105"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D105"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>40329</v>
+        <v>40330</v>
       </c>
       <c r="B106" s="2">
         <v>4.0704000000000002</v>
       </c>
-      <c r="C106"/>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D106"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>40359</v>
+        <v>40360</v>
       </c>
       <c r="B107" s="2">
         <v>4.13</v>
       </c>
-      <c r="C107"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D107"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>40390</v>
+        <v>40391</v>
       </c>
       <c r="B108" s="2">
         <v>4.0022000000000002</v>
       </c>
-      <c r="C108"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D108"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>40421</v>
+        <v>40422</v>
       </c>
       <c r="B109" s="2">
         <v>3.9916</v>
       </c>
-      <c r="C109"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D109"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>40451</v>
+        <v>40452</v>
       </c>
       <c r="B110" s="2">
         <v>3.9679000000000002</v>
       </c>
-      <c r="C110"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D110"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>40482</v>
+        <v>40483</v>
       </c>
       <c r="B111" s="2">
         <v>3.9601999999999999</v>
       </c>
-      <c r="C111"/>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D111"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>40512</v>
+        <v>40513</v>
       </c>
       <c r="B112" s="2">
         <v>4.0205000000000002</v>
       </c>
-      <c r="C112"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D112"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>40543</v>
+        <v>40544</v>
       </c>
       <c r="B113" s="2">
         <v>3.9518</v>
       </c>
-      <c r="C113"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D113"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>40574</v>
+        <v>40575</v>
       </c>
       <c r="B114" s="2">
         <v>3.9287000000000001</v>
       </c>
-      <c r="C114"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D114"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>40602</v>
+        <v>40603</v>
       </c>
       <c r="B115" s="2">
         <v>3.9578000000000002</v>
       </c>
-      <c r="C115"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D115"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>40633</v>
+        <v>40634</v>
       </c>
       <c r="B116" s="2">
         <v>4.0288000000000004</v>
       </c>
-      <c r="C116"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D116"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>40663</v>
+        <v>40664</v>
       </c>
       <c r="B117" s="2">
         <v>3.9333</v>
       </c>
-      <c r="C117"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D117"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>40694</v>
+        <v>40695</v>
       </c>
       <c r="B118" s="2">
         <v>3.9508999999999999</v>
       </c>
-      <c r="C118"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D118"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>40724</v>
+        <v>40725</v>
       </c>
       <c r="B119" s="2">
         <v>3.9803999999999999</v>
       </c>
-      <c r="C119"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D119"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>40755</v>
+        <v>40756</v>
       </c>
       <c r="B120" s="2">
         <v>4.0011000000000001</v>
       </c>
-      <c r="C120"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D120"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>40786</v>
+        <v>40787</v>
       </c>
       <c r="B121" s="2">
         <v>4.1276999999999999</v>
       </c>
-      <c r="C121"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D121"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>40816</v>
+        <v>40817</v>
       </c>
       <c r="B122" s="2">
         <v>4.4150999999999998</v>
       </c>
-      <c r="C122"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D122"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>40847</v>
+        <v>40848</v>
       </c>
       <c r="B123" s="2">
         <v>4.3688000000000002</v>
       </c>
-      <c r="C123"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D123"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>40877</v>
+        <v>40878</v>
       </c>
       <c r="B124" s="2">
         <v>4.4996999999999998</v>
       </c>
-      <c r="C124"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D124"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>40908</v>
+        <v>40909</v>
       </c>
       <c r="B125" s="2">
         <v>4.4646999999999997</v>
       </c>
-      <c r="C125"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D125"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>40939</v>
+        <v>40940</v>
       </c>
       <c r="B126" s="2">
         <v>4.2314999999999996</v>
       </c>
-      <c r="C126"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D126"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>40968</v>
+        <v>40969</v>
       </c>
       <c r="B127" s="2">
         <v>4.1199000000000003</v>
       </c>
-      <c r="C127"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D127"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>40999</v>
+        <v>41000</v>
       </c>
       <c r="B128" s="2">
         <v>4.1405000000000003</v>
       </c>
-      <c r="C128"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D128"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>41029</v>
+        <v>41030</v>
       </c>
       <c r="B129" s="2">
         <v>4.1730999999999998</v>
       </c>
-      <c r="C129"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D129"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>41060</v>
+        <v>41061</v>
       </c>
       <c r="B130" s="2">
         <v>4.3884999999999996</v>
       </c>
-      <c r="C130"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D130"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>41090</v>
+        <v>41091</v>
       </c>
       <c r="B131" s="2">
         <v>4.2218</v>
       </c>
-      <c r="C131"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D131"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>41121</v>
+        <v>41122</v>
       </c>
       <c r="B132" s="2">
         <v>4.1148999999999996</v>
       </c>
-      <c r="C132"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D132"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>41152</v>
+        <v>41153</v>
       </c>
       <c r="B133" s="2">
         <v>4.1662999999999997</v>
       </c>
-      <c r="C133"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D133"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>41182</v>
+        <v>41183</v>
       </c>
       <c r="B134" s="2">
         <v>4.1120999999999999</v>
       </c>
-      <c r="C134"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D134"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>41213</v>
+        <v>41214</v>
       </c>
       <c r="B135" s="2">
         <v>4.1333000000000002</v>
       </c>
-      <c r="C135"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D135"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>41243</v>
+        <v>41244</v>
       </c>
       <c r="B136" s="2">
         <v>4.101</v>
       </c>
-      <c r="C136"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D136"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>41274</v>
+        <v>41275</v>
       </c>
       <c r="B137" s="2">
         <v>4.0829000000000004</v>
       </c>
-      <c r="C137"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D137"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>41305</v>
+        <v>41306</v>
       </c>
       <c r="B138" s="2">
         <v>4.1938000000000004</v>
       </c>
-      <c r="C138"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D138"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>41333</v>
+        <v>41334</v>
       </c>
       <c r="B139" s="2">
         <v>4.1470000000000002</v>
       </c>
-      <c r="C139"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D139"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>41364</v>
+        <v>41365</v>
       </c>
       <c r="B140" s="2">
         <v>4.1745000000000001</v>
       </c>
-      <c r="C140"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D140"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>41394</v>
+        <v>41395</v>
       </c>
       <c r="B141" s="2">
         <v>4.1573000000000002</v>
       </c>
-      <c r="C141"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D141"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>41425</v>
+        <v>41426</v>
       </c>
       <c r="B142" s="2">
         <v>4.2723000000000004</v>
       </c>
-      <c r="C142"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D142"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>41455</v>
+        <v>41456</v>
       </c>
       <c r="B143" s="2">
         <v>4.3280000000000003</v>
       </c>
-      <c r="C143"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D143"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>41486</v>
+        <v>41487</v>
       </c>
       <c r="B144" s="2">
         <v>4.2519999999999998</v>
       </c>
-      <c r="C144"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D144"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>41517</v>
+        <v>41518</v>
       </c>
       <c r="B145" s="2">
         <v>4.2657999999999996</v>
       </c>
-      <c r="C145"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D145"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>41547</v>
+        <v>41548</v>
       </c>
       <c r="B146" s="2">
         <v>4.2172999999999998</v>
       </c>
-      <c r="C146"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D146"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>41578</v>
+        <v>41579</v>
       </c>
       <c r="B147" s="2">
         <v>4.1786000000000003</v>
       </c>
-      <c r="C147"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D147"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>41608</v>
+        <v>41609</v>
       </c>
       <c r="B148" s="2">
         <v>4.2016</v>
       </c>
-      <c r="C148"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D148"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>41639</v>
+        <v>41640</v>
       </c>
       <c r="B149" s="2">
         <v>4.1520999999999999</v>
       </c>
-      <c r="C149"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D149"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>41670</v>
+        <v>41671</v>
       </c>
       <c r="B150" s="2">
         <v>4.2473999999999998</v>
       </c>
-      <c r="C150"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D150"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>41698</v>
+        <v>41699</v>
       </c>
       <c r="B151" s="2">
         <v>4.1548999999999996</v>
       </c>
-      <c r="C151"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D151"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B152" s="2">
         <v>4.1597</v>
       </c>
-      <c r="C152"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D152"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>41759</v>
+        <v>41760</v>
       </c>
       <c r="B153" s="2">
         <v>4.1980000000000004</v>
       </c>
-      <c r="C153"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D153"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>41790</v>
+        <v>41791</v>
       </c>
       <c r="B154" s="2">
         <v>4.1329000000000002</v>
       </c>
-      <c r="C154"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D154"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>41820</v>
+        <v>41821</v>
       </c>
       <c r="B155" s="2">
         <v>4.1525999999999996</v>
       </c>
-      <c r="C155"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D155"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>41851</v>
+        <v>41852</v>
       </c>
       <c r="B156" s="2">
         <v>4.1734</v>
       </c>
-      <c r="C156"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D156"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>41882</v>
+        <v>41883</v>
       </c>
       <c r="B157" s="2">
         <v>4.2054999999999998</v>
       </c>
-      <c r="C157"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D157"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>41912</v>
+        <v>41913</v>
       </c>
       <c r="B158" s="2">
         <v>4.1752000000000002</v>
       </c>
-      <c r="C158"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D158"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>41943</v>
+        <v>41944</v>
       </c>
       <c r="B159" s="2">
         <v>4.226</v>
       </c>
-      <c r="C159"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D159"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>41973</v>
+        <v>41974</v>
       </c>
       <c r="B160" s="2">
         <v>4.181</v>
       </c>
-      <c r="C160"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D160"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>42004</v>
+        <v>42005</v>
       </c>
       <c r="B161" s="2">
         <v>4.2849000000000004</v>
       </c>
-      <c r="C161"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D161"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <v>42035</v>
+        <v>42036</v>
       </c>
       <c r="B162" s="2">
         <v>4.1833999999999998</v>
       </c>
-      <c r="C162"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D162"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>42063</v>
+        <v>42064</v>
       </c>
       <c r="B163" s="2">
         <v>4.1456999999999997</v>
       </c>
-      <c r="C163"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D163"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>42094</v>
+        <v>42095</v>
       </c>
       <c r="B164" s="2">
         <v>4.0745899999999997</v>
       </c>
-      <c r="C164"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D164"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>42124</v>
+        <v>42125</v>
       </c>
       <c r="B165" s="2">
         <v>4.0415000000000001</v>
       </c>
-      <c r="C165"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D165"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <v>42155</v>
+        <v>42156</v>
       </c>
       <c r="B166" s="2">
         <v>4.1105999999999998</v>
       </c>
-      <c r="C166"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D166"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <v>42185</v>
+        <v>42186</v>
       </c>
       <c r="B167" s="2">
         <v>4.1916599999999997</v>
       </c>
-      <c r="C167"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D167"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>42216</v>
+        <v>42217</v>
       </c>
       <c r="B168" s="2">
         <v>4.1425999999999998</v>
       </c>
-      <c r="C168"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D168"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <v>42247</v>
+        <v>42248</v>
       </c>
       <c r="B169" s="2">
         <v>4.2302999999999997</v>
       </c>
-      <c r="C169"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D169"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <v>42277</v>
+        <v>42278</v>
       </c>
       <c r="B170" s="2">
         <v>4.2465799999999998</v>
       </c>
-      <c r="C170"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D170"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>42308</v>
+        <v>42309</v>
       </c>
       <c r="B171" s="2">
         <v>4.2499399999999996</v>
       </c>
-      <c r="C171"/>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D171"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <v>42338</v>
+        <v>42339</v>
       </c>
       <c r="B172" s="2">
         <v>4.2688199999999998</v>
       </c>
-      <c r="C172"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D172"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>42369</v>
+        <v>42370</v>
       </c>
       <c r="B173" s="2">
         <v>4.2633299999999998</v>
       </c>
-      <c r="C173"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D173"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>42400</v>
+        <v>42401</v>
       </c>
       <c r="B174" s="2">
         <v>4.4198500000000003</v>
       </c>
-      <c r="C174"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D174"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>42429</v>
+        <v>42430</v>
       </c>
       <c r="B175" s="2">
         <v>4.3509900000000004</v>
       </c>
-      <c r="C175"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D175"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>42460</v>
+        <v>42461</v>
       </c>
       <c r="B176" s="2">
         <v>4.2430000000000003</v>
       </c>
-      <c r="C176"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D176"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>42490</v>
+        <v>42491</v>
       </c>
       <c r="B177" s="2">
         <v>4.3731999999999998</v>
       </c>
-      <c r="C177"/>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D177"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>42521</v>
+        <v>42522</v>
       </c>
       <c r="B178" s="2">
         <v>4.3862500000000004</v>
       </c>
-      <c r="C178"/>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D178"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>42551</v>
+        <v>42552</v>
       </c>
       <c r="B179" s="2">
         <v>4.3727600000000004</v>
       </c>
-      <c r="C179"/>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D179"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>42582</v>
+        <v>42583</v>
       </c>
       <c r="B180" s="2">
         <v>4.35588</v>
       </c>
-      <c r="C180"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D180"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>42613</v>
+        <v>42614</v>
       </c>
       <c r="B181" s="2">
         <v>4.3628400000000003</v>
       </c>
-      <c r="C181"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D181"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <v>42643</v>
+        <v>42644</v>
       </c>
       <c r="B182" s="2">
         <v>4.2952899999999996</v>
       </c>
-      <c r="C182"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D182"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>42674</v>
+        <v>42675</v>
       </c>
       <c r="B183" s="2">
         <v>4.3071299999999999</v>
       </c>
-      <c r="C183"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D183"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>42704</v>
+        <v>42705</v>
       </c>
       <c r="B184" s="2">
         <v>4.4554</v>
       </c>
-      <c r="C184"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D184"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>42735</v>
+        <v>42736</v>
       </c>
       <c r="B185" s="2">
         <v>4.4051099999999996</v>
       </c>
-      <c r="C185"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D185"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>42766</v>
+        <v>42767</v>
       </c>
       <c r="B186" s="2">
         <v>4.3213600000000003</v>
       </c>
-      <c r="C186"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D186"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>42794</v>
+        <v>42795</v>
       </c>
       <c r="B187" s="2">
         <v>4.30565</v>
       </c>
-      <c r="C187"/>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D187"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>42825</v>
+        <v>42826</v>
       </c>
       <c r="B188" s="2">
         <v>4.2304199999999996</v>
       </c>
-      <c r="C188"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D188"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <v>42855</v>
+        <v>42856</v>
       </c>
       <c r="B189" s="2">
         <v>4.22525</v>
       </c>
-      <c r="C189"/>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D189"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="B190" s="2">
         <v>4.1818999999999997</v>
       </c>
-      <c r="C190"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D190"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>42916</v>
+        <v>42917</v>
       </c>
       <c r="B191" s="2">
         <v>4.2317900000000002</v>
       </c>
-      <c r="C191"/>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D191"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>42947</v>
+        <v>42948</v>
       </c>
       <c r="B192" s="2">
         <v>4.2547199999999998</v>
       </c>
-      <c r="C192"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D192"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>42978</v>
+        <v>42979</v>
       </c>
       <c r="B193" s="2">
         <v>4.2478699999999998</v>
       </c>
-      <c r="C193"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D193"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>43008</v>
+        <v>43009</v>
       </c>
       <c r="B194" s="2">
         <v>4.3131000000000004</v>
       </c>
-      <c r="C194"/>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D194"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>43039</v>
+        <v>43040</v>
       </c>
       <c r="B195" s="2">
         <v>4.2389900000000003</v>
       </c>
-      <c r="C195"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D195"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <v>43069</v>
+        <v>43070</v>
       </c>
       <c r="B196" s="2">
         <v>4.2026000000000003</v>
       </c>
-      <c r="C196"/>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D196"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>43100</v>
+        <v>43101</v>
       </c>
       <c r="B197" s="2">
         <v>4.1766899999999998</v>
       </c>
-      <c r="C197"/>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D197"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>43131</v>
+        <v>43132</v>
       </c>
       <c r="B198" s="2">
         <v>4.1525499999999997</v>
       </c>
-      <c r="C198"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D198"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>43159</v>
+        <v>43160</v>
       </c>
       <c r="B199" s="2">
         <v>4.1760900000000003</v>
       </c>
-      <c r="C199"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D199"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <v>43190</v>
+        <v>43191</v>
       </c>
       <c r="B200" s="2">
         <v>4.2136699999999996</v>
       </c>
-      <c r="C200"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D200"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>43220</v>
+        <v>43221</v>
       </c>
       <c r="B201" s="2">
         <v>4.23874</v>
       </c>
-      <c r="C201"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D201"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <v>43251</v>
+        <v>43252</v>
       </c>
       <c r="B202" s="2">
         <v>4.3162900000000004</v>
       </c>
-      <c r="C202"/>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D202"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <v>43281</v>
+        <v>43282</v>
       </c>
       <c r="B203" s="2">
         <v>4.3737500000000002</v>
       </c>
-      <c r="C203"/>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D203"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <v>43312</v>
+        <v>43313</v>
       </c>
       <c r="B204" s="2">
         <v>4.27644</v>
       </c>
-      <c r="C204"/>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D204"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <v>43343</v>
+        <v>43344</v>
       </c>
       <c r="B205" s="2">
         <v>4.3031899999999998</v>
       </c>
-      <c r="C205"/>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D205"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <v>43373</v>
+        <v>43374</v>
       </c>
       <c r="B206" s="2">
         <v>4.2803599999999999</v>
       </c>
-      <c r="C206"/>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D206"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <v>43404</v>
+        <v>43405</v>
       </c>
       <c r="B207" s="2">
         <v>4.3425099999999999</v>
       </c>
-      <c r="C207"/>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D207"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <v>43434</v>
+        <v>43435</v>
       </c>
       <c r="B208" s="2">
         <v>4.2922500000000001</v>
       </c>
-      <c r="C208"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D208"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <v>43465</v>
+        <v>43466</v>
       </c>
       <c r="B209" s="2">
         <v>4.2899500000000002</v>
       </c>
-      <c r="C209"/>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D209"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <v>43496</v>
+        <v>43497</v>
       </c>
       <c r="B210" s="2">
         <v>4.2618400000000003</v>
       </c>
-      <c r="C210"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D210"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <v>43524</v>
+        <v>43525</v>
       </c>
       <c r="B211" s="2">
         <v>4.3037799999999997</v>
       </c>
-      <c r="C211"/>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D211"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <v>43555</v>
+        <v>43556</v>
       </c>
       <c r="B212" s="2">
         <v>4.3047300000000002</v>
       </c>
-      <c r="C212"/>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D212"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <v>43585</v>
+        <v>43586</v>
       </c>
       <c r="B213" s="2">
         <v>4.2856899999999998</v>
       </c>
-      <c r="C213"/>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D213"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <v>43616</v>
+        <v>43617</v>
       </c>
       <c r="B214" s="2">
         <v>4.2815899999999996</v>
       </c>
-      <c r="C214"/>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D214"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
-        <v>43646</v>
+        <v>43647</v>
       </c>
       <c r="B215" s="2">
         <v>4.2454799999999997</v>
       </c>
-      <c r="C215"/>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D215"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <v>43677</v>
+        <v>43678</v>
       </c>
       <c r="B216" s="2">
         <v>4.2900700000000001</v>
       </c>
-      <c r="C216"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D216"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <v>43708</v>
+        <v>43709</v>
       </c>
       <c r="B217" s="2">
         <v>4.3745099999999999</v>
       </c>
-      <c r="C217"/>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D217"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
-        <v>43738</v>
+        <v>43739</v>
       </c>
       <c r="B218" s="2">
         <v>4.37094</v>
       </c>
-      <c r="C218"/>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D218"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
-        <v>43769</v>
+        <v>43770</v>
       </c>
       <c r="B219" s="2">
         <v>4.2626299999999997</v>
       </c>
-      <c r="C219"/>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D219"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <v>43799</v>
+        <v>43800</v>
       </c>
       <c r="B220" s="2">
         <v>4.3146599999999999</v>
       </c>
-      <c r="C220"/>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D220"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
-        <v>43830</v>
+        <v>43831</v>
       </c>
       <c r="B221" s="2">
         <v>4.2540500000000003</v>
       </c>
-      <c r="C221"/>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D221"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
-        <v>43861</v>
+        <v>43862</v>
       </c>
       <c r="B222" s="2">
         <v>4.29678</v>
       </c>
-      <c r="C222"/>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D222"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B223" s="2">
         <v>4.3291300000000001</v>
       </c>
-      <c r="C223"/>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D223"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B224" s="2">
         <v>4.5578099999999999</v>
       </c>
-      <c r="C224"/>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D224"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B225" s="2">
         <v>4.5448899999999997</v>
       </c>
-      <c r="C225"/>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D225"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B226" s="2">
         <v>4.4486600000000003</v>
       </c>
-      <c r="C226"/>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D226"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B227" s="2">
         <v>4.44672</v>
       </c>
-      <c r="C227"/>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D227"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
-        <v>44043</v>
+        <v>44044</v>
       </c>
       <c r="B228" s="2">
         <v>4.4122599999999998</v>
       </c>
-      <c r="C228"/>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D228"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
-        <v>44074</v>
+        <v>44075</v>
       </c>
       <c r="B229" s="2">
         <v>4.3969500000000004</v>
       </c>
-      <c r="C229"/>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D229"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="B230" s="2">
         <v>4.52928</v>
       </c>
-      <c r="C230"/>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D230"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
-        <v>44135</v>
+        <v>44136</v>
       </c>
       <c r="B231" s="2">
         <v>4.6060400000000001</v>
       </c>
-      <c r="C231"/>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D231"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="B232" s="2">
         <v>4.4789199999999996</v>
       </c>
-      <c r="C232"/>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D232"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B233" s="2">
         <v>4.5621799999999997</v>
       </c>
-      <c r="C233"/>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D233"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B234" s="2">
         <v>4.51952</v>
       </c>
-      <c r="C234"/>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D234"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B235" s="2">
         <v>4.5205099999999998</v>
       </c>
-      <c r="C235"/>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D235"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B236" s="2">
         <v>4.6323699999999999</v>
       </c>
-      <c r="C236"/>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D236"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B237" s="2">
         <v>4.5586599999999997</v>
       </c>
-      <c r="C237"/>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D237"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B238" s="2">
         <v>4.4789700000000003</v>
       </c>
-      <c r="C238"/>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D238"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B239" s="2">
         <v>4.5195299999999996</v>
       </c>
-      <c r="C239"/>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D239"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
-        <v>44408</v>
+        <v>44409</v>
       </c>
       <c r="B240" s="2">
         <v>4.5699199999999998</v>
       </c>
-      <c r="C240"/>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D240"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
-        <v>44439</v>
+        <v>44440</v>
       </c>
       <c r="B241" s="2">
         <v>4.5239599999999998</v>
       </c>
-      <c r="C241"/>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D241"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
-        <v>44469</v>
+        <v>44470</v>
       </c>
       <c r="B242" s="2">
         <v>4.6103300000000003</v>
       </c>
-      <c r="C242"/>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D242"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
-        <v>44500</v>
+        <v>44501</v>
       </c>
       <c r="B243" s="2">
         <v>4.6131000000000002</v>
       </c>
-      <c r="C243"/>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D243"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B244" s="2">
         <v>4.6603500000000002</v>
       </c>
-      <c r="C244"/>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D244"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
-        <v>44561</v>
+        <v>44562</v>
       </c>
       <c r="B245" s="2">
         <v>4.5892099999999996</v>
       </c>
-      <c r="C245"/>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D245"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B246" s="2">
         <v>4.5805499999999997</v>
       </c>
-      <c r="C246"/>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D246"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
-        <v>44620</v>
+        <v>44621</v>
       </c>
       <c r="B247" s="2">
         <v>4.7023000000000001</v>
       </c>
-      <c r="C247"/>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D247"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B248" s="2">
         <v>4.6476199999999999</v>
       </c>
-      <c r="C248"/>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D248"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
-        <v>44681</v>
+        <v>44682</v>
       </c>
       <c r="B249" s="2">
         <v>4.6741999999999999</v>
       </c>
-      <c r="C249"/>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D249"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
-        <v>44712</v>
+        <v>44713</v>
       </c>
       <c r="B250" s="2">
         <v>4.5847600000000002</v>
       </c>
-      <c r="C250"/>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D250"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="B251" s="2">
         <v>4.6773899999999999</v>
       </c>
-      <c r="C251"/>
+      <c r="D251"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43744,13 +43747,14 @@
   <dimension ref="A1:B188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -43763,7 +43767,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>39082</v>
+        <v>39083</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -43771,7 +43775,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>39113</v>
+        <v>39114</v>
       </c>
       <c r="B3" s="2">
         <v>1006.26</v>
@@ -43779,7 +43783,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>39141</v>
+        <v>39142</v>
       </c>
       <c r="B4" s="2">
         <v>1006.41</v>
@@ -43787,7 +43791,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>39172</v>
+        <v>39173</v>
       </c>
       <c r="B5" s="2">
         <v>1011.55</v>
@@ -43795,7 +43799,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>39202</v>
+        <v>39203</v>
       </c>
       <c r="B6" s="2">
         <v>1012.25</v>
@@ -43803,7 +43807,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>39233</v>
+        <v>39234</v>
       </c>
       <c r="B7" s="2">
         <v>1016.3</v>
@@ -43811,7 +43815,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>39263</v>
+        <v>39264</v>
       </c>
       <c r="B8" s="2">
         <v>1007.31</v>
@@ -43819,7 +43823,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>39294</v>
+        <v>39295</v>
       </c>
       <c r="B9" s="2">
         <v>1011.75</v>
@@ -43827,7 +43831,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>39325</v>
+        <v>39326</v>
       </c>
       <c r="B10" s="2">
         <v>1011.1</v>
@@ -43835,7 +43839,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>39355</v>
+        <v>39356</v>
       </c>
       <c r="B11" s="2">
         <v>1018.42</v>
@@ -43843,7 +43847,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>39386</v>
+        <v>39387</v>
       </c>
       <c r="B12" s="2">
         <v>1024.76</v>
@@ -43851,7 +43855,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>39416</v>
+        <v>39417</v>
       </c>
       <c r="B13" s="2">
         <v>1015.5</v>
@@ -43859,7 +43863,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>39447</v>
+        <v>39448</v>
       </c>
       <c r="B14" s="2">
         <v>1016.53</v>
@@ -43867,7 +43871,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>39478</v>
+        <v>39479</v>
       </c>
       <c r="B15" s="2">
         <v>1033.3900000000001</v>
@@ -43875,7 +43879,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>39507</v>
+        <v>39508</v>
       </c>
       <c r="B16" s="2">
         <v>1023.61</v>
@@ -43883,7 +43887,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>39538</v>
+        <v>39539</v>
       </c>
       <c r="B17" s="2">
         <v>1028.93</v>
@@ -43891,7 +43895,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>39568</v>
+        <v>39569</v>
       </c>
       <c r="B18" s="2">
         <v>1035.2</v>
@@ -43899,7 +43903,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>39599</v>
+        <v>39600</v>
       </c>
       <c r="B19" s="2">
         <v>1028.99</v>
@@ -43907,7 +43911,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>39629</v>
+        <v>39630</v>
       </c>
       <c r="B20" s="2">
         <v>1021.97</v>
@@ -43915,7 +43919,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>39660</v>
+        <v>39661</v>
       </c>
       <c r="B21" s="2">
         <v>1040.06</v>
@@ -43923,7 +43927,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>39691</v>
+        <v>39692</v>
       </c>
       <c r="B22" s="2">
         <v>1052.31</v>
@@ -43931,7 +43935,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>39721</v>
+        <v>39722</v>
       </c>
       <c r="B23" s="2">
         <v>1065.97</v>
@@ -43939,7 +43943,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>39752</v>
+        <v>39753</v>
       </c>
       <c r="B24" s="2">
         <v>1040.92</v>
@@ -43947,7 +43951,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>39782</v>
+        <v>39783</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
@@ -43955,7 +43959,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>39813</v>
+        <v>39814</v>
       </c>
       <c r="B26" s="2">
         <v>1107.72</v>
@@ -43963,7 +43967,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>39844</v>
+        <v>39845</v>
       </c>
       <c r="B27" s="2">
         <v>1114.97</v>
@@ -43971,7 +43975,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>39872</v>
+        <v>39873</v>
       </c>
       <c r="B28" s="2">
         <v>1090.25</v>
@@ -43979,7 +43983,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>39903</v>
+        <v>39904</v>
       </c>
       <c r="B29" s="2">
         <v>1096.69</v>
@@ -43987,7 +43991,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>39933</v>
+        <v>39934</v>
       </c>
       <c r="B30" s="2">
         <v>1108.3399999999999</v>
@@ -43995,7 +43999,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>39964</v>
+        <v>39965</v>
       </c>
       <c r="B31" s="2">
         <v>1111.94</v>
@@ -44003,7 +44007,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>39994</v>
+        <v>39995</v>
       </c>
       <c r="B32" s="2">
         <v>1120.3499999999999</v>
@@ -44011,7 +44015,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>40025</v>
+        <v>40026</v>
       </c>
       <c r="B33" s="2">
         <v>1136.4100000000001</v>
@@ -44019,7 +44023,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>40056</v>
+        <v>40057</v>
       </c>
       <c r="B34" s="2">
         <v>1137.05</v>
@@ -44027,7 +44031,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>40086</v>
+        <v>40087</v>
       </c>
       <c r="B35" s="2">
         <v>1137.01</v>
@@ -44035,7 +44039,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>40117</v>
+        <v>40118</v>
       </c>
       <c r="B36" s="2">
         <v>1147.3</v>
@@ -44043,7 +44047,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>40147</v>
+        <v>40148</v>
       </c>
       <c r="B37" s="2">
         <v>1150.76</v>
@@ -44051,7 +44055,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>40178</v>
+        <v>40179</v>
       </c>
       <c r="B38" s="2">
         <v>1153.5</v>
@@ -44059,7 +44063,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>40209</v>
+        <v>40210</v>
       </c>
       <c r="B39" s="2">
         <v>1169.51</v>
@@ -44067,7 +44071,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>40237</v>
+        <v>40238</v>
       </c>
       <c r="B40" s="2">
         <v>1178.06</v>
@@ -44075,7 +44079,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>40268</v>
+        <v>40269</v>
       </c>
       <c r="B41" s="2">
         <v>1198.79</v>
@@ -44083,7 +44087,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>40298</v>
+        <v>40299</v>
       </c>
       <c r="B42" s="2">
         <v>1201.29</v>
@@ -44091,7 +44095,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>40329</v>
+        <v>40330</v>
       </c>
       <c r="B43" s="2">
         <v>1198.78</v>
@@ -44099,7 +44103,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>40359</v>
+        <v>40360</v>
       </c>
       <c r="B44" s="2">
         <v>1198.68</v>
@@ -44107,7 +44111,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>40390</v>
+        <v>40391</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>25</v>
@@ -44115,7 +44119,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>40421</v>
+        <v>40422</v>
       </c>
       <c r="B46" s="2">
         <v>1221.28</v>
@@ -44123,7 +44127,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>40451</v>
+        <v>40452</v>
       </c>
       <c r="B47" s="2">
         <v>1229.1300000000001</v>
@@ -44131,7 +44135,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>40482</v>
+        <v>40483</v>
       </c>
       <c r="B48" s="2">
         <v>1227.9100000000001</v>
@@ -44139,7 +44143,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>40512</v>
+        <v>40513</v>
       </c>
       <c r="B49" s="2">
         <v>1221.56</v>
@@ -44147,7 +44151,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>40543</v>
+        <v>40544</v>
       </c>
       <c r="B50" s="2">
         <v>1228.6600000000001</v>
@@ -44155,7 +44159,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>40574</v>
+        <v>40575</v>
       </c>
       <c r="B51" s="2">
         <v>1220.08</v>
@@ -44163,7 +44167,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>40602</v>
+        <v>40603</v>
       </c>
       <c r="B52" s="2">
         <v>1226.94</v>
@@ -44171,7 +44175,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>40633</v>
+        <v>40634</v>
       </c>
       <c r="B53" s="2">
         <v>1232.79</v>
@@ -44179,7 +44183,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>40663</v>
+        <v>40664</v>
       </c>
       <c r="B54" s="2">
         <v>1242.23</v>
@@ -44187,7 +44191,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>40694</v>
+        <v>40695</v>
       </c>
       <c r="B55" s="2">
         <v>1252.45</v>
@@ -44195,7 +44199,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>40724</v>
+        <v>40725</v>
       </c>
       <c r="B56" s="2">
         <v>1268.19</v>
@@ -44203,7 +44207,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>40755</v>
+        <v>40756</v>
       </c>
       <c r="B57" s="2">
         <v>1274.42</v>
@@ -44211,7 +44215,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>40786</v>
+        <v>40787</v>
       </c>
       <c r="B58" s="2">
         <v>1288.78</v>
@@ -44219,7 +44223,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>40816</v>
+        <v>40817</v>
       </c>
       <c r="B59" s="2">
         <v>1283.9000000000001</v>
@@ -44227,7 +44231,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>40847</v>
+        <v>40848</v>
       </c>
       <c r="B60" s="2">
         <v>1297.98</v>
@@ -44235,7 +44239,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>40877</v>
+        <v>40878</v>
       </c>
       <c r="B61" s="2">
         <v>1291.96</v>
@@ -44243,7 +44247,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>40908</v>
+        <v>40909</v>
       </c>
       <c r="B62" s="2">
         <v>1299.9100000000001</v>
@@ -44251,7 +44255,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>40939</v>
+        <v>40940</v>
       </c>
       <c r="B63" s="2">
         <v>1318.52</v>
@@ -44259,7 +44263,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>40968</v>
+        <v>40969</v>
       </c>
       <c r="B64" s="2">
         <v>1327.63</v>
@@ -44267,7 +44271,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>40999</v>
+        <v>41000</v>
       </c>
       <c r="B65" s="2">
         <v>1332.59</v>
@@ -44275,7 +44279,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>41029</v>
+        <v>41030</v>
       </c>
       <c r="B66" s="2">
         <v>1340.41</v>
@@ -44283,7 +44287,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>41060</v>
+        <v>41061</v>
       </c>
       <c r="B67" s="2">
         <v>1344.04</v>
@@ -44291,7 +44295,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>41090</v>
+        <v>41091</v>
       </c>
       <c r="B68" s="2">
         <v>1361.09</v>
@@ -44299,7 +44303,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>41121</v>
+        <v>41122</v>
       </c>
       <c r="B69" s="2">
         <v>1384.14</v>
@@ -44307,7 +44311,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>41152</v>
+        <v>41153</v>
       </c>
       <c r="B70" s="2">
         <v>1390.22</v>
@@ -44315,7 +44319,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>41182</v>
+        <v>41183</v>
       </c>
       <c r="B71" s="2">
         <v>1401.73</v>
@@ -44323,7 +44327,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>41213</v>
+        <v>41214</v>
       </c>
       <c r="B72" s="2">
         <v>1415.82</v>
@@ -44331,7 +44335,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>41243</v>
+        <v>41244</v>
       </c>
       <c r="B73" s="2">
         <v>1452.17</v>
@@ -44339,7 +44343,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>41274</v>
+        <v>41275</v>
       </c>
       <c r="B74" s="2">
         <v>1474.35</v>
@@ -44347,7 +44351,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>41305</v>
+        <v>41306</v>
       </c>
       <c r="B75" s="2">
         <v>1466.62</v>
@@ -44355,7 +44359,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>41333</v>
+        <v>41334</v>
       </c>
       <c r="B76" s="2">
         <v>1461.4</v>
@@ -44363,7 +44367,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>41364</v>
+        <v>41365</v>
       </c>
       <c r="B77" s="2">
         <v>1475.08</v>
@@ -44371,7 +44375,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>41394</v>
+        <v>41395</v>
       </c>
       <c r="B78" s="2">
         <v>1519.06</v>
@@ -44379,7 +44383,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>41425</v>
+        <v>41426</v>
       </c>
       <c r="B79" s="2">
         <v>1504.57</v>
@@ -44387,7 +44391,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>41455</v>
+        <v>41456</v>
       </c>
       <c r="B80" s="2">
         <v>1472.17</v>
@@ -44395,7 +44399,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>41486</v>
+        <v>41487</v>
       </c>
       <c r="B81" s="2">
         <v>1487.95</v>
@@ -44403,7 +44407,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>41517</v>
+        <v>41518</v>
       </c>
       <c r="B82" s="2">
         <v>1473.91</v>
@@ -44411,7 +44415,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>41547</v>
+        <v>41548</v>
       </c>
       <c r="B83" s="2">
         <v>1479.91</v>
@@ -44419,7 +44423,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>41578</v>
+        <v>41579</v>
       </c>
       <c r="B84" s="2">
         <v>1502.11</v>
@@ -44427,7 +44431,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>41608</v>
+        <v>41609</v>
       </c>
       <c r="B85" s="2">
         <v>1491.73</v>
@@ -44435,7 +44439,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>41639</v>
+        <v>41640</v>
       </c>
       <c r="B86" s="2">
         <v>1503.62</v>
@@ -44443,7 +44447,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>41670</v>
+        <v>41671</v>
       </c>
       <c r="B87" s="2">
         <v>1486.15</v>
@@ -44451,7 +44455,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>41698</v>
+        <v>41699</v>
       </c>
       <c r="B88" s="2">
         <v>1508.39</v>
@@ -44459,7 +44463,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>41729</v>
+        <v>41730</v>
       </c>
       <c r="B89" s="2">
         <v>1520.97</v>
@@ -44467,7 +44471,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>41759</v>
+        <v>41760</v>
       </c>
       <c r="B90" s="2">
         <v>1533.77</v>
@@ -44475,7 +44479,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>41790</v>
+        <v>41791</v>
       </c>
       <c r="B91" s="2">
         <v>1553.96</v>
@@ -44483,7 +44487,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>41820</v>
+        <v>41821</v>
       </c>
       <c r="B92" s="2">
         <v>1573.41</v>
@@ -44491,7 +44495,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>41851</v>
+        <v>41852</v>
       </c>
       <c r="B93" s="2">
         <v>1575.25</v>
@@ -44499,7 +44503,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>41882</v>
+        <v>41883</v>
       </c>
       <c r="B94" s="2">
         <v>1601.87</v>
@@ -44507,7 +44511,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>41912</v>
+        <v>41913</v>
       </c>
       <c r="B95" s="2">
         <v>1617.66</v>
@@ -44515,7 +44519,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>41943</v>
+        <v>41944</v>
       </c>
       <c r="B96" s="2">
         <v>1643.73</v>
@@ -44523,7 +44527,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>41973</v>
+        <v>41974</v>
       </c>
       <c r="B97" s="2">
         <v>1651.45</v>
@@ -44531,7 +44535,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>42004</v>
+        <v>42005</v>
       </c>
       <c r="B98" s="2">
         <v>1645.73</v>
@@ -44539,7 +44543,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>42035</v>
+        <v>42036</v>
       </c>
       <c r="B99" s="2">
         <v>1679.35</v>
@@ -44547,7 +44551,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>42063</v>
+        <v>42064</v>
       </c>
       <c r="B100" s="2">
         <v>1670.02</v>
@@ -44555,7 +44559,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>42094</v>
+        <v>42095</v>
       </c>
       <c r="B101" s="2">
         <v>1669.15</v>
@@ -44563,7 +44567,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>42124</v>
+        <v>42125</v>
       </c>
       <c r="B102" s="2">
         <v>1654.85</v>
@@ -44571,7 +44575,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>42155</v>
+        <v>42156</v>
       </c>
       <c r="B103" s="2">
         <v>1639.98</v>
@@ -44579,7 +44583,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>42185</v>
+        <v>42186</v>
       </c>
       <c r="B104" s="2">
         <v>1629.31</v>
@@ -44587,7 +44591,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>42216</v>
+        <v>42217</v>
       </c>
       <c r="B105" s="2">
         <v>1650.22</v>
@@ -44595,7 +44599,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>42247</v>
+        <v>42248</v>
       </c>
       <c r="B106" s="2">
         <v>1648.45</v>
@@ -44603,7 +44607,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>42277</v>
+        <v>42278</v>
       </c>
       <c r="B107" s="2">
         <v>1665.92</v>
@@ -44611,7 +44615,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>42308</v>
+        <v>42309</v>
       </c>
       <c r="B108" s="2">
         <v>1679.69</v>
@@ -44619,7 +44623,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>42338</v>
+        <v>42339</v>
       </c>
       <c r="B109" s="2">
         <v>1681.98</v>
@@ -44627,7 +44631,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>42369</v>
+        <v>42370</v>
       </c>
       <c r="B110" s="2">
         <v>1673.34</v>
@@ -44635,7 +44639,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>42400</v>
+        <v>42401</v>
       </c>
       <c r="B111" s="2">
         <v>1677.37</v>
@@ -44643,7 +44647,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>42429</v>
+        <v>42430</v>
       </c>
       <c r="B112" s="2">
         <v>1691.2</v>
@@ -44651,7 +44655,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>42460</v>
+        <v>42461</v>
       </c>
       <c r="B113" s="2">
         <v>1700.18</v>
@@ -44659,7 +44663,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>42490</v>
+        <v>42491</v>
       </c>
       <c r="B114" s="2">
         <v>1690.73</v>
@@ -44667,7 +44671,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>42521</v>
+        <v>42522</v>
       </c>
       <c r="B115" s="2">
         <v>1687.26</v>
@@ -44675,7 +44679,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>42551</v>
+        <v>42552</v>
       </c>
       <c r="B116" s="2">
         <v>1704.32</v>
@@ -44683,7 +44687,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>42582</v>
+        <v>42583</v>
       </c>
       <c r="B117" s="2">
         <v>1707.7</v>
@@ -44691,7 +44695,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>42613</v>
+        <v>42614</v>
       </c>
       <c r="B118" s="2">
         <v>1712.02</v>
@@ -44699,7 +44703,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>42643</v>
+        <v>42644</v>
       </c>
       <c r="B119" s="2">
         <v>1707.51</v>
@@ -44707,7 +44711,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>42674</v>
+        <v>42675</v>
       </c>
       <c r="B120" s="2">
         <v>1699.87</v>
@@ -44715,7 +44719,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>42704</v>
+        <v>42705</v>
       </c>
       <c r="B121" s="2">
         <v>1674.77</v>
@@ -44723,7 +44727,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>42735</v>
+        <v>42736</v>
       </c>
       <c r="B122" s="2">
         <v>1677.54</v>
@@ -44731,7 +44735,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>42766</v>
+        <v>42767</v>
       </c>
       <c r="B123" s="2">
         <v>1675.33</v>
@@ -44739,7 +44743,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>42794</v>
+        <v>42795</v>
       </c>
       <c r="B124" s="2">
         <v>1681.85</v>
@@ -44747,7 +44751,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>42825</v>
+        <v>42826</v>
       </c>
       <c r="B125" s="2">
         <v>1704.2</v>
@@ -44755,7 +44759,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>42855</v>
+        <v>42856</v>
       </c>
       <c r="B126" s="2">
         <v>1709.72</v>
@@ -44763,7 +44767,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="B127" s="2">
         <v>1726.15</v>
@@ -44771,7 +44775,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>42916</v>
+        <v>42917</v>
       </c>
       <c r="B128" s="2">
         <v>1728.79</v>
@@ -44779,7 +44783,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>42947</v>
+        <v>42948</v>
       </c>
       <c r="B129" s="2">
         <v>1730.59</v>
@@ -44787,7 +44791,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>42978</v>
+        <v>42979</v>
       </c>
       <c r="B130" s="2">
         <v>1739.65</v>
@@ -44795,7 +44799,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>43008</v>
+        <v>43009</v>
       </c>
       <c r="B131" s="2">
         <v>1739.29</v>
@@ -44803,7 +44807,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>43039</v>
+        <v>43040</v>
       </c>
       <c r="B132" s="2">
         <v>1742.87</v>
@@ -44811,7 +44815,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>43069</v>
+        <v>43070</v>
       </c>
       <c r="B133" s="2">
         <v>1751.24</v>
@@ -44819,7 +44823,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>43100</v>
+        <v>43101</v>
       </c>
       <c r="B134" s="2">
         <v>1757.58</v>
@@ -44827,7 +44831,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>43131</v>
+        <v>43132</v>
       </c>
       <c r="B135" s="2">
         <v>1757.55</v>
@@ -44835,7 +44839,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>43159</v>
+        <v>43160</v>
       </c>
       <c r="B136" s="2">
         <v>1769.15</v>
@@ -44843,7 +44847,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>43190</v>
+        <v>43191</v>
       </c>
       <c r="B137" s="2">
         <v>1786.13</v>
@@ -44851,7 +44855,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>43220</v>
+        <v>43221</v>
       </c>
       <c r="B138" s="2">
         <v>1791.45</v>
@@ -44859,7 +44863,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>43251</v>
+        <v>43252</v>
       </c>
       <c r="B139" s="2">
         <v>1787.86</v>
@@ -44867,7 +44871,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>43281</v>
+        <v>43282</v>
       </c>
       <c r="B140" s="2">
         <v>1790.6</v>
@@ -44875,7 +44879,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>43312</v>
+        <v>43313</v>
       </c>
       <c r="B141" s="2">
         <v>1796.84</v>
@@ -44883,7 +44887,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>43343</v>
+        <v>43344</v>
       </c>
       <c r="B142" s="2">
         <v>1800.35</v>
@@ -44891,7 +44895,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>43373</v>
+        <v>43374</v>
       </c>
       <c r="B143" s="2">
         <v>1802.98</v>
@@ -44899,7 +44903,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>43404</v>
+        <v>43405</v>
       </c>
       <c r="B144" s="2">
         <v>1809.18</v>
@@ -44907,7 +44911,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>43434</v>
+        <v>43435</v>
       </c>
       <c r="B145" s="2">
         <v>1821.96</v>
@@ -44915,7 +44919,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>43465</v>
+        <v>43466</v>
       </c>
       <c r="B146" s="2">
         <v>1839.64</v>
@@ -44923,7 +44927,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>43496</v>
+        <v>43497</v>
       </c>
       <c r="B147" s="2">
         <v>1849.08</v>
@@ -44931,7 +44935,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>43524</v>
+        <v>43525</v>
       </c>
       <c r="B148" s="2">
         <v>1839.78</v>
@@ -44939,7 +44943,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>43555</v>
+        <v>43556</v>
       </c>
       <c r="B149" s="2">
         <v>1850.39</v>
@@ -44947,7 +44951,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>43585</v>
+        <v>43586</v>
       </c>
       <c r="B150" s="2">
         <v>1843.58</v>
@@ -44955,7 +44959,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>43616</v>
+        <v>43617</v>
       </c>
       <c r="B151" s="2">
         <v>1865.17</v>
@@ -44963,7 +44967,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>43646</v>
+        <v>43647</v>
       </c>
       <c r="B152" s="2">
         <v>1878.94</v>
@@ -44971,7 +44975,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>43677</v>
+        <v>43678</v>
       </c>
       <c r="B153" s="2">
         <v>1895.53</v>
@@ -44979,7 +44983,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>43708</v>
+        <v>43709</v>
       </c>
       <c r="B154" s="2">
         <v>1915.02</v>
@@ -44987,7 +44991,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>43738</v>
+        <v>43739</v>
       </c>
       <c r="B155" s="2">
         <v>1910.01</v>
@@ -44995,7 +44999,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>43769</v>
+        <v>43770</v>
       </c>
       <c r="B156" s="2">
         <v>1916.69</v>
@@ -45003,7 +45007,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>43799</v>
+        <v>43800</v>
       </c>
       <c r="B157" s="2">
         <v>1916.89</v>
@@ -45011,7 +45015,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>43830</v>
+        <v>43831</v>
       </c>
       <c r="B158" s="2">
         <v>1912.18</v>
@@ -45019,7 +45023,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>43861</v>
+        <v>43862</v>
       </c>
       <c r="B159" s="2">
         <v>1913.58</v>
@@ -45027,7 +45031,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B160" s="2">
         <v>1938.3</v>
@@ -45035,7 +45039,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B161" s="2">
         <v>1962.84</v>
@@ -45043,7 +45047,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B162" s="2">
         <v>1985.59</v>
@@ -45051,7 +45055,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B163" s="2">
         <v>2015.41</v>
@@ -45059,7 +45063,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B164" s="2">
         <v>2009.2</v>
@@ -45067,7 +45071,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>44043</v>
+        <v>44044</v>
       </c>
       <c r="B165" s="2">
         <v>2018.8</v>
@@ -45075,7 +45079,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <v>44074</v>
+        <v>44075</v>
       </c>
       <c r="B166" s="2">
         <v>2011.09</v>
@@ -45083,7 +45087,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <v>44104</v>
+        <v>44105</v>
       </c>
       <c r="B167" s="2">
         <v>2020.93</v>
@@ -45091,7 +45095,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>44135</v>
+        <v>44136</v>
       </c>
       <c r="B168" s="2">
         <v>2035.2</v>
@@ -45099,7 +45103,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <v>44165</v>
+        <v>44166</v>
       </c>
       <c r="B169" s="2">
         <v>2034.09</v>
@@ -45107,7 +45111,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <v>44196</v>
+        <v>44197</v>
       </c>
       <c r="B170" s="2">
         <v>2034.99</v>
@@ -45115,7 +45119,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>44227</v>
+        <v>44228</v>
       </c>
       <c r="B171" s="2">
         <v>2040.32</v>
@@ -45123,7 +45127,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <v>44255</v>
+        <v>44256</v>
       </c>
       <c r="B172" s="2">
         <v>2016.19</v>
@@ -45131,7 +45135,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B173" s="2">
         <v>2015.88</v>
@@ -45139,7 +45143,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>44316</v>
+        <v>44317</v>
       </c>
       <c r="B174" s="2">
         <v>2011.25</v>
@@ -45147,7 +45151,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>44347</v>
+        <v>44348</v>
       </c>
       <c r="B175" s="2">
         <v>1996.35</v>
@@ -45155,7 +45159,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>44377</v>
+        <v>44378</v>
       </c>
       <c r="B176" s="2">
         <v>2001.97</v>
@@ -45163,7 +45167,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>44408</v>
+        <v>44409</v>
       </c>
       <c r="B177" s="2">
         <v>2013.59</v>
@@ -45171,7 +45175,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>44439</v>
+        <v>44440</v>
       </c>
       <c r="B178" s="2">
         <v>2008.37</v>
@@ -45179,7 +45183,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>44469</v>
+        <v>44470</v>
       </c>
       <c r="B179" s="2">
         <v>1986.22</v>
@@ -45187,7 +45191,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>44500</v>
+        <v>44501</v>
       </c>
       <c r="B180" s="2">
         <v>1922.89</v>
@@ -45195,7 +45199,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>44530</v>
+        <v>44531</v>
       </c>
       <c r="B181" s="2">
         <v>1875.65</v>
@@ -45203,7 +45207,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <v>44561</v>
+        <v>44562</v>
       </c>
       <c r="B182" s="2">
         <v>1836.74</v>
@@ -45211,7 +45215,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B183" s="2">
         <v>1828.17</v>
@@ -45219,7 +45223,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>44620</v>
+        <v>44621</v>
       </c>
       <c r="B184" s="2">
         <v>1822.5</v>
@@ -45227,7 +45231,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B185" s="2">
         <v>1746.17</v>
@@ -45235,7 +45239,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>44681</v>
+        <v>44682</v>
       </c>
       <c r="B186" s="2">
         <v>1678.03</v>
@@ -45243,7 +45247,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>44712</v>
+        <v>44713</v>
       </c>
       <c r="B187" s="2">
         <v>1682.22</v>
@@ -45251,7 +45255,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="B188" s="2">
         <v>1618.22</v>
